--- a/Arquivos Extração do Senado/Planilhas/Planilhas Formatadas Para Carga/2017/Sessão 065.xlsx
+++ b/Arquivos Extração do Senado/Planilhas/Planilhas Formatadas Para Carga/2017/Sessão 065.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andressa Ribeiro\Google Drive\Projeto de Licenciatura - PL\PL2\TCC\TCC\2017 - Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andressa Ribeiro\Google Drive\Projeto de Licenciatura - PL\PL2\Arquivos Extração do Senado\2017\2017 - Excel\Feito\Planilhas Formatadas Para Carga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="12" windowWidth="18960" windowHeight="11328"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="147">
   <si>
     <r>
       <rPr>
@@ -1399,12 +1399,18 @@
   </si>
   <si>
     <t>Secreta</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>Aprovado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -1879,29 +1885,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K128"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
-    <col min="7" max="7" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="9" max="9" width="17.109375" customWidth="1"/>
     <col min="10" max="10" width="20.6640625" customWidth="1"/>
     <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1935,8 +1942,11 @@
       <c r="K1" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L1" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1970,8 +1980,11 @@
       <c r="K2" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L2" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2005,8 +2018,11 @@
       <c r="K3" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2040,8 +2056,11 @@
       <c r="K4" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L4" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -2075,8 +2094,11 @@
       <c r="K5" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L5" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -2110,8 +2132,11 @@
       <c r="K6" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L6" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2145,8 +2170,11 @@
       <c r="K7" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L7" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
@@ -2180,8 +2208,11 @@
       <c r="K8" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
@@ -2215,8 +2246,11 @@
       <c r="K9" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L9" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -2250,8 +2284,11 @@
       <c r="K10" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L10" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
@@ -2285,8 +2322,11 @@
       <c r="K11" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L11" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2320,8 +2360,11 @@
       <c r="K12" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L12" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>37</v>
       </c>
@@ -2355,8 +2398,11 @@
       <c r="K13" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L13" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -2390,8 +2436,11 @@
       <c r="K14" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L14" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>41</v>
       </c>
@@ -2425,8 +2474,11 @@
       <c r="K15" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L15" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>43</v>
       </c>
@@ -2460,8 +2512,11 @@
       <c r="K16" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L16" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -2495,8 +2550,11 @@
       <c r="K17" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L17" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>48</v>
       </c>
@@ -2530,8 +2588,11 @@
       <c r="K18" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L18" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
@@ -2565,8 +2626,11 @@
       <c r="K19" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>51</v>
       </c>
@@ -2600,8 +2664,11 @@
       <c r="K20" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L20" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2635,8 +2702,11 @@
       <c r="K21" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L21" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>54</v>
       </c>
@@ -2670,8 +2740,11 @@
       <c r="K22" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L22" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>56</v>
       </c>
@@ -2705,8 +2778,11 @@
       <c r="K23" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L23" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>59</v>
       </c>
@@ -2740,8 +2816,11 @@
       <c r="K24" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L24" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
@@ -2775,8 +2854,11 @@
       <c r="K25" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L25" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
@@ -2810,8 +2892,11 @@
       <c r="K26" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L26" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>65</v>
       </c>
@@ -2845,8 +2930,11 @@
       <c r="K27" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L27" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>66</v>
       </c>
@@ -2880,8 +2968,11 @@
       <c r="K28" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L28" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>68</v>
       </c>
@@ -2915,8 +3006,11 @@
       <c r="K29" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L29" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>70</v>
       </c>
@@ -2950,8 +3044,11 @@
       <c r="K30" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L30" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>71</v>
       </c>
@@ -2985,8 +3082,11 @@
       <c r="K31" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L31" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>74</v>
       </c>
@@ -3020,8 +3120,11 @@
       <c r="K32" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L32" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -3055,8 +3158,11 @@
       <c r="K33" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L33" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -3090,8 +3196,11 @@
       <c r="K34" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L34" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
@@ -3125,8 +3234,11 @@
       <c r="K35" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L35" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>78</v>
       </c>
@@ -3160,8 +3272,11 @@
       <c r="K36" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L36" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -3195,8 +3310,11 @@
       <c r="K37" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L37" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>81</v>
       </c>
@@ -3230,8 +3348,11 @@
       <c r="K38" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L38" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>82</v>
       </c>
@@ -3265,8 +3386,11 @@
       <c r="K39" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L39" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>83</v>
       </c>
@@ -3300,8 +3424,11 @@
       <c r="K40" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L40" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>84</v>
       </c>
@@ -3335,8 +3462,11 @@
       <c r="K41" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L41" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>85</v>
       </c>
@@ -3370,8 +3500,11 @@
       <c r="K42" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L42" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>87</v>
       </c>
@@ -3405,8 +3538,11 @@
       <c r="K43" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L43" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>88</v>
       </c>
@@ -3440,8 +3576,11 @@
       <c r="K44" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L44" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>89</v>
       </c>
@@ -3475,8 +3614,11 @@
       <c r="K45" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L45" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>90</v>
       </c>
@@ -3510,8 +3652,11 @@
       <c r="K46" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L46" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
@@ -3545,8 +3690,11 @@
       <c r="K47" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L47" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>93</v>
       </c>
@@ -3580,8 +3728,11 @@
       <c r="K48" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L48" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>94</v>
       </c>
@@ -3615,8 +3766,11 @@
       <c r="K49" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L49" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>96</v>
       </c>
@@ -3650,8 +3804,11 @@
       <c r="K50" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L50" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>98</v>
       </c>
@@ -3685,8 +3842,11 @@
       <c r="K51" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L51" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>99</v>
       </c>
@@ -3720,8 +3880,11 @@
       <c r="K52" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L52" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>100</v>
       </c>
@@ -3755,8 +3918,11 @@
       <c r="K53" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L53" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>101</v>
       </c>
@@ -3790,8 +3956,11 @@
       <c r="K54" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L54" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>102</v>
       </c>
@@ -3825,8 +3994,11 @@
       <c r="K55" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L55" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>103</v>
       </c>
@@ -3860,8 +4032,11 @@
       <c r="K56" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L56" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>104</v>
       </c>
@@ -3895,8 +4070,11 @@
       <c r="K57" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L57" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>105</v>
       </c>
@@ -3930,8 +4108,11 @@
       <c r="K58" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L58" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>108</v>
       </c>
@@ -3965,8 +4146,11 @@
       <c r="K59" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L59" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>109</v>
       </c>
@@ -4000,8 +4184,11 @@
       <c r="K60" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L60" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>111</v>
       </c>
@@ -4035,8 +4222,11 @@
       <c r="K61" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L61" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>112</v>
       </c>
@@ -4070,8 +4260,11 @@
       <c r="K62" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L62" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>114</v>
       </c>
@@ -4105,8 +4298,11 @@
       <c r="K63" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L63" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
@@ -4140,8 +4336,11 @@
       <c r="K64" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L64" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4175,8 +4374,11 @@
       <c r="K65" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L65" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -4210,8 +4412,11 @@
       <c r="K66" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L66" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>118</v>
       </c>
@@ -4245,8 +4450,11 @@
       <c r="K67" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L67" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>119</v>
       </c>
@@ -4280,8 +4488,11 @@
       <c r="K68" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L68" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>120</v>
       </c>
@@ -4315,8 +4526,11 @@
       <c r="K69" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L69" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>121</v>
       </c>
@@ -4350,8 +4564,11 @@
       <c r="K70" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L70" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>122</v>
       </c>
@@ -4385,8 +4602,11 @@
       <c r="K71" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L71" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>123</v>
       </c>
@@ -4420,8 +4640,11 @@
       <c r="K72" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L72" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>124</v>
       </c>
@@ -4455,8 +4678,11 @@
       <c r="K73" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L73" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>125</v>
       </c>
@@ -4490,8 +4716,11 @@
       <c r="K74" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L74" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>126</v>
       </c>
@@ -4525,8 +4754,11 @@
       <c r="K75" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L75" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
@@ -4560,8 +4792,11 @@
       <c r="K76" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L76" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>128</v>
       </c>
@@ -4595,8 +4830,11 @@
       <c r="K77" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L77" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>130</v>
       </c>
@@ -4630,8 +4868,11 @@
       <c r="K78" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L78" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>131</v>
       </c>
@@ -4665,8 +4906,11 @@
       <c r="K79" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L79" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>132</v>
       </c>
@@ -4700,8 +4944,11 @@
       <c r="K80" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L80" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>133</v>
       </c>
@@ -4735,8 +4982,11 @@
       <c r="K81" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L81" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>134</v>
       </c>
@@ -4770,53 +5020,56 @@
       <c r="K82" s="10" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" spans="1:11" ht="21.95" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="L82" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:12" ht="21.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
